--- a/Sequence Models for Time Series and Natural Language Processing/Embedding Layer Formation.xlsx
+++ b/Sequence Models for Time Series and Natural Language Processing/Embedding Layer Formation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GCP\Machine Learning Engineer\Sequence Models for Time Series and Natural Language Processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GCP\Machine_Learning_Engineer\Sequence Models for Time Series and Natural Language Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47593800-AD43-4216-9C54-B0946BD43A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400A4EEF-745E-4AFF-B76C-F3036F7E3FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{50B02ED0-66A6-4499-84ED-53063989B163}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
   <si>
     <t>You</t>
   </si>
@@ -48,9 +48,6 @@
     <t>With</t>
   </si>
   <si>
-    <t>Me</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -103,13 +100,22 @@
   </si>
   <si>
     <t>EMBEDDING VECTOR</t>
+  </si>
+  <si>
+    <t>Ritish</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +127,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -277,6 +290,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,18 +606,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E64F66-3698-4300-A224-6A3D143DC291}">
-  <dimension ref="A2:O34"/>
+  <dimension ref="A2:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12:AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -622,10 +637,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -645,27 +660,27 @@
         <v>6</v>
       </c>
       <c r="G3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -676,584 +691,780 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="8"/>
-      <c r="J7" s="9">
+      <c r="H7" s="5"/>
+      <c r="I7" s="8"/>
+      <c r="K7" s="9">
+        <v>8</v>
+      </c>
+      <c r="L7" s="10">
+        <v>2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>5</v>
+      </c>
+      <c r="P7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" s="18">
+        <v>50</v>
+      </c>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18">
+        <v>50</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>55</v>
+      </c>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="H13" s="17"/>
+      <c r="K13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" s="18">
         <v>2</v>
       </c>
-      <c r="N7" s="3">
-        <v>5</v>
-      </c>
-      <c r="O7" s="6">
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="K14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="18">
+        <v>5</v>
+      </c>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="K15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+    </row>
+    <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+    </row>
+    <row r="17" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5</v>
+      </c>
+      <c r="G17" s="8">
+        <v>4</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>5</v>
+      </c>
+      <c r="M17" s="8">
+        <v>6</v>
+      </c>
+      <c r="S17" s="18">
+        <v>1</v>
+      </c>
+      <c r="T17" s="18">
+        <v>5</v>
+      </c>
+      <c r="U17" s="18">
+        <v>2</v>
+      </c>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18">
+        <v>1</v>
+      </c>
+      <c r="X17" s="18">
+        <v>50</v>
+      </c>
+      <c r="Y17" s="18">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="18">
+        <v>55</v>
+      </c>
+      <c r="AC17" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+    </row>
+    <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8">
+        <v>6</v>
+      </c>
+      <c r="E19" s="7">
+        <v>6</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4</v>
+      </c>
+      <c r="K19" s="12">
+        <v>1</v>
+      </c>
+      <c r="L19" s="13">
+        <v>5</v>
+      </c>
+      <c r="M19" s="14">
+        <v>4</v>
+      </c>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18">
+        <v>50</v>
+      </c>
+      <c r="U19" s="18">
+        <v>55</v>
+      </c>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18">
+        <v>55</v>
+      </c>
+      <c r="X19" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18">
+        <v>50</v>
+      </c>
+      <c r="AB19" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="18"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+    </row>
+    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="8"/>
+      <c r="K24" s="9">
+        <v>7</v>
+      </c>
+      <c r="L24" s="10">
+        <v>2</v>
+      </c>
+      <c r="O24" s="3">
+        <v>5</v>
+      </c>
+      <c r="P24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="K31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="L31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="J13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="J14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5">
-        <v>5</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>5</v>
-      </c>
-      <c r="G16" s="8">
-        <v>4</v>
-      </c>
-      <c r="J16" s="7">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <v>5</v>
-      </c>
-      <c r="L16" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5">
-        <v>5</v>
-      </c>
-      <c r="C18" s="8">
-        <v>9</v>
-      </c>
-      <c r="E18" s="7">
-        <v>9</v>
-      </c>
-      <c r="F18" s="8">
-        <v>4</v>
-      </c>
-      <c r="J18" s="12">
-        <v>1</v>
-      </c>
-      <c r="K18" s="13">
-        <v>5</v>
-      </c>
-      <c r="L18" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="8"/>
-      <c r="J23" s="9">
-        <v>7</v>
-      </c>
-      <c r="K23" s="10">
-        <v>2</v>
-      </c>
-      <c r="N23" s="3">
-        <v>5</v>
-      </c>
-      <c r="O23" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="J29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="J30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="7">
-        <v>1</v>
-      </c>
-      <c r="B32" s="5">
-        <v>3</v>
-      </c>
-      <c r="C32" s="8">
-        <v>2</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5">
-        <v>3</v>
-      </c>
-      <c r="G32" s="8">
-        <v>4</v>
-      </c>
-      <c r="J32" s="7">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5">
-        <v>3</v>
-      </c>
-      <c r="L32" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="K32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="7">
         <v>1</v>
       </c>
@@ -1261,28 +1472,59 @@
         <v>3</v>
       </c>
       <c r="C34" s="8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E34" s="7">
-        <v>9</v>
-      </c>
-      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>3</v>
+      </c>
+      <c r="G34" s="8">
         <v>4</v>
       </c>
-      <c r="J34" s="12">
-        <v>1</v>
-      </c>
-      <c r="K34" s="13">
+      <c r="H34" s="17"/>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5">
         <v>3</v>
       </c>
-      <c r="L34" s="14">
+      <c r="M34" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="7">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8">
+        <v>6</v>
+      </c>
+      <c r="E36" s="7">
+        <v>6</v>
+      </c>
+      <c r="F36" s="8">
+        <v>4</v>
+      </c>
+      <c r="K36" s="12">
+        <v>1</v>
+      </c>
+      <c r="L36" s="13">
+        <v>3</v>
+      </c>
+      <c r="M36" s="14">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K23:L23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sequence Models for Time Series and Natural Language Processing/Embedding Layer Formation.xlsx
+++ b/Sequence Models for Time Series and Natural Language Processing/Embedding Layer Formation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GCP\Machine_Learning_Engineer\Sequence Models for Time Series and Natural Language Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400A4EEF-745E-4AFF-B76C-F3036F7E3FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB7D0E1-36E9-470D-A511-E6D07DECBA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{50B02ED0-66A6-4499-84ED-53063989B163}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{50B02ED0-66A6-4499-84ED-53063989B163}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>You</t>
   </si>
@@ -287,11 +287,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,16 +608,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E64F66-3698-4300-A224-6A3D143DC291}">
   <dimension ref="A2:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12:AC20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -637,10 +637,13 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -660,10 +663,13 @@
         <v>6</v>
       </c>
       <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -680,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -696,12 +702,12 @@
       <c r="E6">
         <v>6</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="4">
         <v>5</v>
@@ -728,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -769,7 +775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -810,7 +816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -851,7 +857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -892,7 +898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -932,106 +938,106 @@
       <c r="P12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18" t="s">
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="17">
         <v>50</v>
       </c>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18">
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17">
         <v>50</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AA12" s="17">
         <v>55</v>
       </c>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="H13" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="H13" s="16"/>
       <c r="K13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18" t="s">
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="17">
         <v>2</v>
       </c>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="K14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18" t="s">
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="W14" s="18">
-        <v>5</v>
-      </c>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="W14" s="17">
+        <v>5</v>
+      </c>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="K15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-    </row>
-    <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-    </row>
-    <row r="17" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+    </row>
+    <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+    </row>
+    <row r="17" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>1</v>
       </c>
@@ -1050,7 +1056,7 @@
       <c r="G17" s="8">
         <v>4</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="16"/>
       <c r="K17" s="7">
         <v>1</v>
       </c>
@@ -1060,50 +1066,50 @@
       <c r="M17" s="8">
         <v>6</v>
       </c>
-      <c r="S17" s="18">
-        <v>1</v>
-      </c>
-      <c r="T17" s="18">
-        <v>5</v>
-      </c>
-      <c r="U17" s="18">
+      <c r="S17" s="17">
+        <v>1</v>
+      </c>
+      <c r="T17" s="17">
+        <v>5</v>
+      </c>
+      <c r="U17" s="17">
         <v>2</v>
       </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18">
-        <v>1</v>
-      </c>
-      <c r="X17" s="18">
+      <c r="V17" s="17"/>
+      <c r="W17" s="17">
+        <v>1</v>
+      </c>
+      <c r="X17" s="17">
         <v>50</v>
       </c>
-      <c r="Y17" s="18">
+      <c r="Y17" s="17">
         <v>2</v>
       </c>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="18">
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="17">
         <v>55</v>
       </c>
-      <c r="AC17" s="18">
+      <c r="AC17" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-    </row>
-    <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+    </row>
+    <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>1</v>
       </c>
@@ -1128,44 +1134,44 @@
       <c r="M19" s="14">
         <v>4</v>
       </c>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18">
+      <c r="S19" s="17"/>
+      <c r="T19" s="17">
         <v>50</v>
       </c>
-      <c r="U19" s="18">
+      <c r="U19" s="17">
         <v>55</v>
       </c>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18">
+      <c r="V19" s="17"/>
+      <c r="W19" s="17">
         <v>55</v>
       </c>
-      <c r="X19" s="18">
+      <c r="X19" s="17">
         <v>2</v>
       </c>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18">
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17">
         <v>50</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AB19" s="17">
         <v>2</v>
       </c>
-      <c r="AC19" s="18"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-    </row>
-    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC19" s="17"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+    </row>
+    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1175,12 +1181,12 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="16"/>
-    </row>
-    <row r="24" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="4">
         <v>5</v>
@@ -1207,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1330,7 +1336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1447,7 +1453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="K31" s="11" t="s">
         <v>22</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="K32" s="11" t="s">
         <v>26</v>
       </c>
@@ -1463,8 +1469,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>1</v>
       </c>
@@ -1483,7 +1489,7 @@
       <c r="G34" s="8">
         <v>4</v>
       </c>
-      <c r="H34" s="17"/>
+      <c r="H34" s="16"/>
       <c r="K34" s="7">
         <v>1</v>
       </c>
@@ -1494,8 +1500,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>1</v>
       </c>
